--- a/docs/StructureDefinition-VAAllergyIntoleranceOrigination.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntoleranceOrigination.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="384">
   <si>
     <t>Path</t>
   </si>
@@ -323,204 +323,201 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>ORIGINATION DATE/TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the activity was recorded / updated</t>
+  </si>
+  <si>
+    <t>Date/time this allergy/adverse reaction was entered into the system.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>PATIENT ALLERGIES @ORIGINATION DATE/TIME 120.8-4b</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.location.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.location.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>ORIGINATION DATE/TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the activity was recorded / updated</t>
-  </si>
-  <si>
-    <t>Date/time this allergy/adverse reaction was entered into the system.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>PATIENT ALLERGIES @ORIGINATION DATE/TIME 120.8-4b</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.location.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.location.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2331,7 +2328,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2350,15 +2347,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2395,14 +2394,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2423,7 +2424,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2441,7 +2442,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2460,16 +2461,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2519,7 +2520,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2551,7 +2552,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2574,16 +2575,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2633,7 +2634,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2651,21 +2652,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2688,16 +2689,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2747,7 +2748,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2765,13 +2766,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2779,14 +2780,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2804,16 +2805,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2863,7 +2864,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2878,24 +2879,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2921,13 +2922,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2977,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2995,7 +2996,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -3004,12 +3005,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3032,13 +3033,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3089,7 +3090,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3107,21 +3108,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3144,13 +3145,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3201,7 +3202,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3219,7 +3220,7 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>44</v>
@@ -3233,11 +3234,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3256,16 +3257,16 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3303,19 +3304,19 @@
         <v>44</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3333,7 +3334,7 @@
         <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>44</v>
@@ -3347,7 +3348,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3370,16 +3371,16 @@
         <v>54</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3429,16 +3430,16 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>44</v>
@@ -3461,7 +3462,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3484,16 +3485,16 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3543,25 +3544,25 @@
         <v>44</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3575,7 +3576,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3598,13 +3599,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3655,7 +3656,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3673,7 +3674,7 @@
         <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3687,11 +3688,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3710,16 +3711,16 @@
         <v>44</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3757,19 +3758,19 @@
         <v>44</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3787,7 +3788,7 @@
         <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3801,7 +3802,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3827,16 +3828,16 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
@@ -3861,49 +3862,49 @@
         <v>44</v>
       </c>
       <c r="W22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="X22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3917,7 +3918,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3940,19 +3941,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3980,29 +3981,29 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
       </c>
@@ -4019,7 +4020,7 @@
         <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -4033,7 +4034,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4059,81 +4060,81 @@
         <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S24" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S24" t="s" s="2">
+      <c r="T24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="T24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -4147,7 +4148,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4170,16 +4171,16 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4193,61 +4194,61 @@
         <v>44</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>44</v>
@@ -4261,7 +4262,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4284,13 +4285,13 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4341,25 +4342,25 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4373,7 +4374,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4396,16 +4397,16 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4455,25 +4456,25 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4487,7 +4488,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4510,16 +4511,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4569,7 +4570,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4601,7 +4602,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4624,13 +4625,13 @@
         <v>44</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4660,11 +4661,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4699,21 +4700,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4736,13 +4737,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4772,60 +4773,60 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AL30" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4848,13 +4849,13 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4905,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4923,7 +4924,7 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -4937,11 +4938,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4960,16 +4961,16 @@
         <v>44</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5007,19 +5008,19 @@
         <v>44</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5037,7 +5038,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -5051,7 +5052,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5077,16 +5078,16 @@
         <v>66</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>44</v>
@@ -5135,25 +5136,25 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -5167,7 +5168,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5190,16 +5191,16 @@
         <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5249,25 +5250,25 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5281,7 +5282,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5307,81 +5308,81 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="R35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5395,7 +5396,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5418,17 +5419,17 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5477,25 +5478,25 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5509,7 +5510,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5532,19 +5533,19 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5593,25 +5594,25 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5625,7 +5626,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5648,19 +5649,19 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5709,7 +5710,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5721,27 +5722,27 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5764,13 +5765,13 @@
         <v>44</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5821,7 +5822,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5839,7 +5840,7 @@
         <v>44</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -5853,11 +5854,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5876,16 +5877,16 @@
         <v>44</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5935,7 +5936,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5953,7 +5954,7 @@
         <v>44</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5967,11 +5968,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5990,16 +5991,16 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6049,7 +6050,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6081,7 +6082,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6104,16 +6105,16 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6142,11 +6143,11 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
       </c>
@@ -6163,7 +6164,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6181,21 +6182,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6218,13 +6219,13 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6275,7 +6276,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
@@ -6293,7 +6294,7 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6307,11 +6308,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6330,16 +6331,16 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6377,19 +6378,19 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>101</v>
+        <v>158</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6407,7 +6408,7 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
@@ -6421,7 +6422,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6444,19 +6445,19 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6505,7 +6506,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6523,7 +6524,7 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
@@ -6537,7 +6538,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6560,86 +6561,86 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="R46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6653,7 +6654,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6676,13 +6677,13 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6721,41 +6722,41 @@
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AE47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6763,16 +6764,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="D48" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="E48" t="s" s="2">
         <v>53</v>
@@ -6790,13 +6791,13 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6847,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>53</v>
@@ -6862,16 +6863,16 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6879,7 +6880,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6902,13 +6903,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6959,7 +6960,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6977,7 +6978,7 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -6991,7 +6992,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7014,13 +7015,13 @@
         <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7047,52 +7048,52 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7103,7 +7104,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7126,16 +7127,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7185,7 +7186,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7197,27 +7198,27 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7240,13 +7241,13 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7297,7 +7298,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7315,7 +7316,7 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
@@ -7329,11 +7330,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7352,16 +7353,16 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7411,7 +7412,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7429,7 +7430,7 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>
@@ -7443,11 +7444,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7466,16 +7467,16 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7525,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7557,7 +7558,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7583,10 +7584,10 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7613,63 +7614,63 @@
         <v>44</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7692,16 +7693,16 @@
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7751,7 +7752,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>53</v>
@@ -7769,21 +7770,21 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7809,13 +7810,13 @@
         <v>44</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7865,7 +7866,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7883,7 +7884,7 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -7897,7 +7898,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7920,13 +7921,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7977,7 +7978,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -7995,7 +7996,7 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAAllergyIntoleranceOrigination.xlsx
+++ b/docs/StructureDefinition-VAAllergyIntoleranceOrigination.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="385">
   <si>
     <t>Path</t>
   </si>
@@ -798,6 +798,9 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-DataOperation</t>
+  </si>
+  <si>
     <t>Coding.system</t>
   </si>
   <si>
@@ -834,7 +837,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>new</t>
+    <t>CREATE</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -5050,7 +5053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>246</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>44</v>
@@ -5094,7 +5097,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>44</v>
@@ -5136,7 +5139,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5154,7 +5157,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5194,13 +5197,13 @@
         <v>151</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5250,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5268,7 +5271,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5282,7 +5285,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5308,21 +5311,21 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>44</v>
@@ -5364,7 +5367,7 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5382,7 +5385,7 @@
         <v>44</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5396,7 +5399,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5422,14 +5425,14 @@
         <v>151</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>44</v>
@@ -5478,7 +5481,7 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5496,7 +5499,7 @@
         <v>44</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5510,7 +5513,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5533,19 +5536,19 @@
         <v>54</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
@@ -5594,7 +5597,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5612,7 +5615,7 @@
         <v>44</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5626,7 +5629,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5649,19 +5652,19 @@
         <v>44</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5710,7 +5713,7 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>53</v>
@@ -5722,27 +5725,27 @@
         <v>44</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5854,7 +5857,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5968,11 +5971,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5997,7 +6000,7 @@
         <v>105</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>102</v>
@@ -6050,7 +6053,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6082,7 +6085,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6108,13 +6111,13 @@
         <v>188</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6143,10 +6146,10 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>44</v>
@@ -6164,7 +6167,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6182,21 +6185,21 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6308,7 +6311,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6422,7 +6425,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6448,16 +6451,16 @@
         <v>229</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6506,7 +6509,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6524,7 +6527,7 @@
         <v>44</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>44</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6564,23 +6567,23 @@
         <v>151</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>44</v>
@@ -6622,7 +6625,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6640,7 +6643,7 @@
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6654,7 +6657,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6677,13 +6680,13 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6722,17 +6725,17 @@
         <v>44</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>53</v>
@@ -6750,13 +6753,13 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>44</v>
@@ -6764,16 +6767,16 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E48" t="s" s="2">
         <v>53</v>
@@ -6791,13 +6794,13 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6848,7 +6851,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>53</v>
@@ -6863,16 +6866,16 @@
         <v>44</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>44</v>
@@ -6880,7 +6883,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6903,13 +6906,13 @@
         <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6960,7 +6963,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6978,7 +6981,7 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>44</v>
@@ -6992,7 +6995,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7018,10 +7021,10 @@
         <v>188</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7048,13 +7051,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -7072,7 +7075,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7090,10 +7093,10 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
@@ -7104,7 +7107,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7127,16 +7130,16 @@
         <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7186,7 +7189,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7198,27 +7201,27 @@
         <v>44</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7330,7 +7333,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7444,11 +7447,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7473,7 +7476,7 @@
         <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>102</v>
@@ -7526,7 +7529,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7584,10 +7587,10 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7617,10 +7620,10 @@
         <v>182</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>44</v>
@@ -7638,7 +7641,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>53</v>
@@ -7656,21 +7659,21 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7693,16 +7696,16 @@
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7752,7 +7755,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>53</v>
@@ -7770,10 +7773,10 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>44</v>
@@ -7784,7 +7787,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7810,13 +7813,13 @@
         <v>44</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7866,7 +7869,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7884,7 +7887,7 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
@@ -7898,7 +7901,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7921,13 +7924,13 @@
         <v>44</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7978,7 +7981,7 @@
         <v>44</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -7996,7 +7999,7 @@
         <v>44</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>44</v>
